--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H2">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N2">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O2">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P2">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q2">
-        <v>4.274958290741444</v>
+        <v>0.3520040020723333</v>
       </c>
       <c r="R2">
-        <v>38.474624616673</v>
+        <v>3.168036018651</v>
       </c>
       <c r="S2">
-        <v>0.04812278254889826</v>
+        <v>0.007100303803136376</v>
       </c>
       <c r="T2">
-        <v>0.04812278254889826</v>
+        <v>0.007100303803136376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H3">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I3">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J3">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.038293</v>
       </c>
       <c r="O3">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P3">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q3">
-        <v>6.825335901145444</v>
+        <v>1.275545373183667</v>
       </c>
       <c r="R3">
-        <v>61.428023110309</v>
+        <v>11.479908358653</v>
       </c>
       <c r="S3">
-        <v>0.07683213099537492</v>
+        <v>0.02572913833640994</v>
       </c>
       <c r="T3">
-        <v>0.07683213099537495</v>
+        <v>0.02572913833640994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H4">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I4">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J4">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N4">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O4">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P4">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q4">
-        <v>60.11122333763033</v>
+        <v>16.14854523544266</v>
       </c>
       <c r="R4">
-        <v>541.0010100386729</v>
+        <v>145.336907118984</v>
       </c>
       <c r="S4">
-        <v>0.6766660941909054</v>
+        <v>0.3257337316488009</v>
       </c>
       <c r="T4">
-        <v>0.6766660941909055</v>
+        <v>0.3257337316488009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.297477</v>
       </c>
       <c r="I5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N5">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O5">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P5">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q5">
-        <v>0.021495060013</v>
+        <v>0.009470709142999998</v>
       </c>
       <c r="R5">
-        <v>0.193455540117</v>
+        <v>0.08523638228699999</v>
       </c>
       <c r="S5">
-        <v>0.0002419677640180464</v>
+        <v>0.0001910345102628214</v>
       </c>
       <c r="T5">
-        <v>0.0002419677640180465</v>
+        <v>0.0001910345102628214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.297477</v>
       </c>
       <c r="I6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.038293</v>
       </c>
       <c r="O6">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P6">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q6">
         <v>0.034318698529</v>
@@ -818,10 +818,10 @@
         <v>0.308868286761</v>
       </c>
       <c r="S6">
-        <v>0.000386322194125039</v>
+        <v>0.0006922454979193022</v>
       </c>
       <c r="T6">
-        <v>0.0003863221941250392</v>
+        <v>0.0006922454979193022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.297477</v>
       </c>
       <c r="I7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N7">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O7">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P7">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q7">
-        <v>0.302247242013</v>
+        <v>0.434478511912</v>
       </c>
       <c r="R7">
-        <v>2.720225178116999</v>
+        <v>3.910306607208</v>
       </c>
       <c r="S7">
-        <v>0.003402367301430011</v>
+        <v>0.008763904422529506</v>
       </c>
       <c r="T7">
-        <v>0.003402367301430012</v>
+        <v>0.008763904422529506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H8">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I8">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J8">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N8">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O8">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P8">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q8">
-        <v>1.036438688614</v>
+        <v>0.6202323568956666</v>
       </c>
       <c r="R8">
-        <v>9.327948197525998</v>
+        <v>5.582091212061</v>
       </c>
       <c r="S8">
-        <v>0.01166708778082284</v>
+        <v>0.0125107616293226</v>
       </c>
       <c r="T8">
-        <v>0.01166708778082284</v>
+        <v>0.0125107616293226</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H9">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I9">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J9">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.038293</v>
       </c>
       <c r="O9">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P9">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q9">
-        <v>1.654762856062</v>
+        <v>2.247515677320333</v>
       </c>
       <c r="R9">
-        <v>14.892865704558</v>
+        <v>20.227641095883</v>
       </c>
       <c r="S9">
-        <v>0.01862750176176671</v>
+        <v>0.04533483715337695</v>
       </c>
       <c r="T9">
-        <v>0.01862750176176671</v>
+        <v>0.04533483715337694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H10">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I10">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J10">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N10">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O10">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P10">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q10">
-        <v>14.573615284614</v>
+        <v>28.45379658426933</v>
       </c>
       <c r="R10">
-        <v>131.162537561526</v>
+        <v>256.084169258424</v>
       </c>
       <c r="S10">
-        <v>0.1640537454626587</v>
+        <v>0.5739440429982418</v>
       </c>
       <c r="T10">
-        <v>0.1640537454626587</v>
+        <v>0.5739440429982416</v>
       </c>
     </row>
   </sheetData>
